--- a/bin/excel/SpanishEnglish-CASA2.xlsx
+++ b/bin/excel/SpanishEnglish-CASA2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E0B9F-5919-4672-89F2-A61E3EB6FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88D646-BED9-439E-8AAB-2BB392EA539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{411B1D49-91CC-46F0-A7E4-E3C78437C3B0}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>párpados</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>tecla</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>pijama</t>
   </si>
   <si>
@@ -169,18 +163,12 @@
     <t>tile</t>
   </si>
   <si>
-    <t>uña</t>
-  </si>
-  <si>
     <t>rabo</t>
   </si>
   <si>
     <t>tail</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>lavabo</t>
   </si>
   <si>
@@ -221,6 +209,96 @@
   </si>
   <si>
     <t>cheek</t>
+  </si>
+  <si>
+    <t>chik</t>
+  </si>
+  <si>
+    <t>aibraus</t>
+  </si>
+  <si>
+    <t>ailids</t>
+  </si>
+  <si>
+    <t>klof</t>
+  </si>
+  <si>
+    <t>est'ouf</t>
+  </si>
+  <si>
+    <t>kitchen rum</t>
+  </si>
+  <si>
+    <t>kap</t>
+  </si>
+  <si>
+    <t>jaket cout</t>
+  </si>
+  <si>
+    <t>soufa</t>
+  </si>
+  <si>
+    <t>soing mechin</t>
+  </si>
+  <si>
+    <t>bold</t>
+  </si>
+  <si>
+    <t>freigrens</t>
+  </si>
+  <si>
+    <t>kis</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>pajama</t>
+  </si>
+  <si>
+    <t>pej'ama</t>
+  </si>
+  <si>
+    <t>lombar sop'ort dev'ais</t>
+  </si>
+  <si>
+    <t>hiol</t>
+  </si>
+  <si>
+    <t>u'eden logs</t>
+  </si>
+  <si>
+    <t>paiplain</t>
+  </si>
+  <si>
+    <t>matres</t>
+  </si>
+  <si>
+    <t>k'uielt</t>
+  </si>
+  <si>
+    <t>lait bolb</t>
+  </si>
+  <si>
+    <t>fen bleid</t>
+  </si>
+  <si>
+    <t>taeol</t>
+  </si>
+  <si>
+    <t>teol</t>
+  </si>
+  <si>
+    <t>neols</t>
+  </si>
+  <si>
+    <t>uñas</t>
+  </si>
+  <si>
+    <t>fen</t>
+  </si>
+  <si>
+    <t>chien</t>
   </si>
 </sst>
 </file>
@@ -579,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433BFE20-D50E-43C6-B0F2-CB742396A7C8}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -618,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -632,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -646,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -674,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -702,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -730,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -800,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -898,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -926,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -954,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -968,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1010,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
